--- a/data/pcss_falo.xlsx
+++ b/data/pcss_falo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon/BrICC Clinic/BrICC Terms/Spring 2020/pilot_data_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7F1369-40AE-364F-80E0-CF383669CFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE2AFCC-FEFD-2A46-A5F5-6F57041ACBAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34660" yWindow="2800" windowWidth="27240" windowHeight="15300" xr2:uid="{BD9BE11C-3167-1949-83EF-FBAB79CDD8E8}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -490,6 +490,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -498,6 +501,9 @@
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -506,6 +512,9 @@
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -514,6 +523,9 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -522,6 +534,9 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -530,6 +545,9 @@
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -538,6 +556,9 @@
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -546,6 +567,9 @@
       <c r="B9">
         <v>2</v>
       </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
@@ -554,6 +578,9 @@
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -562,6 +589,9 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
@@ -570,6 +600,9 @@
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
@@ -578,6 +611,9 @@
       <c r="B13">
         <v>2</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
@@ -586,6 +622,9 @@
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
@@ -594,6 +633,9 @@
       <c r="B15">
         <v>0</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
@@ -602,60 +644,84 @@
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
     </row>
